--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4483425.049461428</v>
+        <v>4481544.8696911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514572.6473909254</v>
+        <v>734596.099133554</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>129.1935566495323</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>329.5630513996639</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>134.4518684629374</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>183.2762925201025</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>157.0044783406141</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571657</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210774</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>237.396509186925</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>113.9765264254021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>188.1547546791333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552123</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>70.41761368552002</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>122.917375646192</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>122.9173756461929</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>210.5069097326778</v>
@@ -2542,7 +2542,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>70.41761368552098</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856053</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>38.97736453145681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552163</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.41761368552081</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373658</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2566.650548947988</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2566.650548947988</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.888763586079</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.825876242509</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.057220972395</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1255.591462711315</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.4521307355029</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>940.7524019189439</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>582.4867033121934</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>196.6984507139492</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>189.7529499647457</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2512.021522816099</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2258.25973745419</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1927.196850110619</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4765,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447096</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>825.212988506684</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999335</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>81.1590373016893</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,19 +5033,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
         <v>1954.109744073479</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706316</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>416.2699138005285</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>416.2699138005285</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273989</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>653.9727323706985</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,31 +5671,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
         <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="S19" t="n">
         <v>1397.590392029363</v>
@@ -5704,19 +5704,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449758</v>
+        <v>906.9806841449749</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953631</v>
+        <v>663.4483689953621</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146767</v>
+        <v>385.1833720146756</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729323</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>357.1138312011059</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>357.1138312011059</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>357.1138312011059</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029364</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875144</v>
+        <v>1373.724986903316</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449762</v>
+        <v>1095.748521173148</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953635</v>
+        <v>852.2162060235356</v>
       </c>
       <c r="W22" t="n">
-        <v>385.183372014677</v>
+        <v>573.9512090428491</v>
       </c>
       <c r="X22" t="n">
-        <v>168.345994172934</v>
+        <v>357.1138312011059</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>357.1138312011059</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,22 +6069,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.954865901922</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6172,25 +6172,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1373.724986903317</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449761</v>
+        <v>1095.748521173149</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953634</v>
+        <v>852.2162060235364</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146769</v>
+        <v>573.9512090428499</v>
       </c>
       <c r="X25" t="n">
-        <v>168.345994172934</v>
+        <v>357.1138312011068</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>357.1138312011068</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>197.5995097820642</v>
+        <v>168.3459941729333</v>
       </c>
       <c r="C28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1546.987153773237</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S28" t="n">
-        <v>1358.219316745063</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T28" t="n">
-        <v>1145.586074590844</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U28" t="n">
-        <v>867.6096088606758</v>
+        <v>906.9806841449758</v>
       </c>
       <c r="V28" t="n">
-        <v>624.0772937110632</v>
+        <v>663.4483689953631</v>
       </c>
       <c r="W28" t="n">
-        <v>624.0772937110632</v>
+        <v>385.1833720146766</v>
       </c>
       <c r="X28" t="n">
-        <v>407.23991586932</v>
+        <v>168.3459941729333</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.5995097820642</v>
+        <v>168.3459941729333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028587</v>
@@ -6619,22 +6619,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366502</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969367</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
         <v>1536.594541272927</v>
@@ -6646,25 +6646,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029364</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875144</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449761</v>
+        <v>906.9806841449755</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953634</v>
+        <v>663.4483689953628</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146769</v>
+        <v>385.1833720146763</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729332</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,37 +6923,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,22 +7017,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,25 +7093,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,13 +7260,13 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.004430061687</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,52 +7330,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254964</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649699</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7728,16 +7728,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>282.1585173815949</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>446.2959467056007</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>48.8408432116523</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.5464719111889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98.36824365745767</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>63.96278301169856</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263833</v>
+        <v>137.1263883408634</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>12.47593567466578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808134</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408617</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>45.87395321003295</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24373,16 +24373,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808134</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408617</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>85.78855608739543</v>
       </c>
       <c r="D28" t="n">
         <v>137.5748216925009</v>
@@ -24613,13 +24613,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.94633654662453</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
@@ -24847,16 +24847,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169816</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808134</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>137.1263883408626</v>
       </c>
     </row>
     <row r="32">
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
         <v>788375.3505184435</v>
@@ -26332,28 +26332,28 @@
         <v>788375.3505184434</v>
       </c>
       <c r="I2" t="n">
+        <v>788375.3505184435</v>
+      </c>
+      <c r="J2" t="n">
         <v>788375.3505184434</v>
       </c>
-      <c r="J2" t="n">
-        <v>788375.3505184435</v>
-      </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="L2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.7698642843</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>821041.7698642842</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.7698642843</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569152</v>
+        <v>8832.521060569085</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758875</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415198</v>
+        <v>4420.71819341515</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415183</v>
+        <v>4420.718193415175</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.71819341519</v>
+        <v>4420.718193415175</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415203</v>
+        <v>4420.718193415175</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415158</v>
+        <v>4420.718193415176</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>23206.5809318964</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
@@ -26494,7 +26494,7 @@
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710171</v>
+        <v>9155.673405710084</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592294</v>
+        <v>164025.5042332571</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361253</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="G6" t="n">
-        <v>682206.6087994414</v>
+        <v>682124.9427510768</v>
       </c>
       <c r="H6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.4638116457</v>
       </c>
       <c r="I6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.4638116459</v>
       </c>
       <c r="J6" t="n">
-        <v>514615.9106674175</v>
+        <v>514534.2446190529</v>
       </c>
       <c r="K6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.463811646</v>
       </c>
       <c r="L6" t="n">
-        <v>645614.57100865</v>
+        <v>645614.5710086501</v>
       </c>
       <c r="M6" t="n">
         <v>565319.0678785254</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123627</v>
+        <v>700120.0831123624</v>
       </c>
       <c r="O6" t="n">
-        <v>700120.0831123627</v>
+        <v>700120.0831123628</v>
       </c>
       <c r="P6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123625</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>45.22215615943924</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>56.67488725638964</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>279.3323015578576</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>33.17202783755533</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>68.70517704842308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359948</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423954</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>119.4431162246989</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>457.3556036678253</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32087,10 +32087,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>216.4869287318324</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4309478731435</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4309478731435</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
         <v>76.0697047810465</v>
@@ -33026,28 +33026,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731435</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731434</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,16 +33980,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34457,10 +34457,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>443.0141460526805</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>805.3562659280456</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,10 +35735,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>352.7978549555611</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>728.4316101333637</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127699</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>728.4316101333637</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127699</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333637</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127699</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>728.4316101333636</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127699</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>139.5622729371505</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>314.9542346222674</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38105,10 +38105,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
